--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -625,6 +625,7 @@
 Blåmossa
 Bronshjon
 Granbarkgnagare
+Grovticka
 Mindre märgborre
 Fläcknycklar
 Revlummer</t>
@@ -665,7 +666,7 @@
         <v>44089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +753,7 @@
         <v>44112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +810,7 @@
         <v>44263</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -866,7 +867,7 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -923,7 +924,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -980,7 +981,7 @@
         <v>44706</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1037,7 +1038,7 @@
         <v>44709</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1094,7 +1095,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1151,7 +1152,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44263</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>44706</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44709</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44263</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>44706</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44709</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44263</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>44706</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44709</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44263</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>44706</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44709</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -591,14 +591,14 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" t="n">
         <v>2</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -609,24 +609,31 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" t="n">
         <v>2</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
+          <t>Goliatmusseron
+Lakritsmusseron
+Blå taggsvamp
+Spillkråka
+Svart taggsvamp
+Svartvit taggsvamp
 Tallticka
 Björksplintborre
 Blåmossa
 Bronshjon
+Dropptaggsvamp
 Granbarkgnagare
 Grovticka
 Mindre märgborre
+Skarp dropptaggsvamp
 Fläcknycklar
 Revlummer</t>
         </is>
@@ -666,7 +673,7 @@
         <v>44089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +760,7 @@
         <v>44112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,7 +817,7 @@
         <v>44263</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -867,7 +874,7 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,7 +931,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +988,7 @@
         <v>44706</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1045,7 @@
         <v>44709</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1102,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1159,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44263</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44706</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44709</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44263</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44706</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44709</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44263</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44706</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44709</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -639,27 +639,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/artfynd/A 21853-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/artfynd/A 21853-2022.xlsx", "A 21853-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/kartor/A 21853-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/kartor/A 21853-2022.png", "A 21853-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/klagomål/A 21853-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/klagomål/A 21853-2022.docx", "A 21853-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/klagomålsmail/A 21853-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/klagomålsmail/A 21853-2022.docx", "A 21853-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/tillsyn/A 21853-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/tillsyn/A 21853-2022.docx", "A 21853-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/tillsynsmail/A 21853-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/tillsynsmail/A 21853-2022.docx", "A 21853-2022")</f>
         <v/>
       </c>
     </row>
@@ -673,7 +673,7 @@
         <v>44089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/artfynd/A 45510-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/artfynd/A 45510-2020.xlsx", "A 45510-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/kartor/A 45510-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/kartor/A 45510-2020.png", "A 45510-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/klagomål/A 45510-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/klagomål/A 45510-2020.docx", "A 45510-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/klagomålsmail/A 45510-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/klagomålsmail/A 45510-2020.docx", "A 45510-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/tillsyn/A 45510-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/tillsyn/A 45510-2020.docx", "A 45510-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/tillsynsmail/A 45510-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NACKA/tillsynsmail/A 45510-2020.docx", "A 45510-2020")</f>
         <v/>
       </c>
     </row>
@@ -760,7 +760,7 @@
         <v>44112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44263</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44706</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44709</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44263</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44706</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44709</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44263</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44706</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44709</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44263</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44706</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44709</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44263</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44706</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44709</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44263</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44706</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44709</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44263</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44706</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44709</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44263</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44706</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44709</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44263</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44706</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44709</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44263</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44706</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44709</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44089</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44263</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44706</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44709</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
